--- a/analysis/pre_gemini_data/participant250/task_hard.xlsx
+++ b/analysis/pre_gemini_data/participant250/task_hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,222 +422,218 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>condstat2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>condstat3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condstat4</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstate1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>index2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>index3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>index4</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>index5</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>index6</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>index7</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>indexop1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal10</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>literal4</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>literal5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>literal6</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>literal7</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>literal8</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>literal9</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>methodcall1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>var9</t>
         </is>
@@ -928,7 +912,7 @@
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -1042,7 +1026,7 @@
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>317</v>
+        <v>163</v>
       </c>
       <c r="AI5" t="n">
         <v>1</v>
@@ -1156,7 +1140,7 @@
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>138330.91</v>
+        <v>85757.2</v>
       </c>
       <c r="AI6" t="n">
         <v>350.39</v>
@@ -1190,109 +1174,109 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.63</v>
+        <v>0.99</v>
       </c>
       <c r="C7" t="n">
-        <v>0.35</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E7" t="n">
-        <v>9.710000000000001</v>
+        <v>15.32</v>
       </c>
       <c r="F7" t="n">
-        <v>3.15</v>
+        <v>4.97</v>
       </c>
       <c r="G7" t="n">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="K7" t="n">
         <v>21.8</v>
       </c>
       <c r="L7" t="n">
-        <v>0.45</v>
+        <v>0.71</v>
       </c>
       <c r="M7" t="n">
-        <v>0.71</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>0.47</v>
+        <v>0.74</v>
       </c>
       <c r="O7" t="n">
-        <v>0.29</v>
+        <v>0.46</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="R7" t="n">
-        <v>0.42</v>
+        <v>0.66</v>
       </c>
       <c r="S7" t="n">
-        <v>0.28</v>
+        <v>0.44</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.47</v>
+        <v>0.74</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>1.93</v>
+        <v>3.04</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>36.56</v>
+        <v>35.75</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.47</v>
+        <v>0.74</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
@@ -1384,7 +1368,7 @@
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>436.38</v>
+        <v>526.12</v>
       </c>
       <c r="AI8" t="n">
         <v>350.39</v>
@@ -1571,98 +1555,6 @@
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
